--- a/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_1mi.xlsx
+++ b/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_1mi.xlsx
@@ -572,7 +572,7 @@
         <v>15.239817639095</v>
       </c>
       <c r="R2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="S2" t="n">
         <v>0.6</v>
@@ -634,7 +634,7 @@
         <v>50</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -693,7 +693,7 @@
         <v>30</v>
       </c>
       <c r="S4" t="n">
-        <v>0.366666666666667</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -747,10 +747,10 @@
         <v>2.97997206561507</v>
       </c>
       <c r="R5" t="n">
-        <v>30</v>
+        <v>28.3333333333333</v>
       </c>
       <c r="S5" t="n">
-        <v>0.383333333333333</v>
+        <v>0.316666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -806,10 +806,10 @@
         <v>4.92117658956969</v>
       </c>
       <c r="R6" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S6" t="n">
-        <v>1.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
@@ -865,10 +865,10 @@
         <v>3.76813326109933</v>
       </c>
       <c r="R7" t="n">
-        <v>107.5</v>
+        <v>60</v>
       </c>
       <c r="S7" t="n">
-        <v>0.525</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="8">
@@ -924,10 +924,10 @@
         <v>4.64695232347616</v>
       </c>
       <c r="R8" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -983,10 +983,10 @@
         <v>5.7607095152339</v>
       </c>
       <c r="R9" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="S9" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
@@ -1099,7 +1099,7 @@
         <v>0.709627924817798</v>
       </c>
       <c r="R11" t="n">
-        <v>20</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="S11" t="n">
         <v>0.2</v>
